--- a/AllConfusionMatrices.xlsx
+++ b/AllConfusionMatrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55694518-6153-4EFB-898D-EC2888A124DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDC2AD-7F13-45B9-B8D7-63E0CF2DDE37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{A25D8D46-635A-47F6-90AA-F320D2055949}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E5D915-47C2-4B68-88FC-9CA9AAB36509}">
   <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:I33"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,8 +792,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <f>M7</f>
-        <v>0.33544226791580484</v>
+        <v>0.2565498279948018</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>16</v>
@@ -1251,8 +1250,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f>M22</f>
-        <v>0.65521648825691003</v>
+        <v>0.43909891255417105</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>16</v>
@@ -1710,8 +1708,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f>M37</f>
-        <v>0.47354606989915732</v>
+        <v>0.33590064698413491</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>16</v>
@@ -3333,7 +3330,7 @@
   <dimension ref="A2:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3355,22 +3352,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>0</v>
@@ -3428,7 +3425,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
         <v>252.96606270612301</v>
@@ -3469,7 +3466,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>208.438689059052</v>
@@ -3510,7 +3507,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>614.20148545916697</v>
@@ -3551,7 +3548,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7">
         <v>66.780169886872002</v>
@@ -3592,7 +3589,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>601.93185533879205</v>
@@ -3626,7 +3623,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
         <v>75.518939991161702</v>
@@ -3814,22 +3811,22 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>0</v>
@@ -3887,7 +3884,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7">
         <v>73.072741196072897</v>
@@ -3928,7 +3925,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7">
         <v>69.399949217395005</v>
@@ -3969,7 +3966,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>336.22370980732097</v>
@@ -4010,7 +4007,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7">
         <v>44.327019925828999</v>
@@ -4051,7 +4048,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7">
         <v>404.314865022476</v>
@@ -4085,7 +4082,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" s="7">
         <v>113.90956473011001</v>
@@ -4273,22 +4270,22 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>0</v>
@@ -4346,7 +4343,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35" s="7">
         <v>324.29737994479098</v>
@@ -4387,7 +4384,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="7">
         <v>276.544194329356</v>
@@ -4428,7 +4425,7 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" s="7">
         <v>947.520709445276</v>
@@ -4469,7 +4466,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="7">
         <v>110.89809266131201</v>
@@ -4510,7 +4507,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" s="7">
         <v>1003.88082368381</v>
@@ -4544,7 +4541,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" s="7">
         <v>189.73617198189299</v>
@@ -4729,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A4996C-34F4-458B-9863-00352A332035}">
   <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4980,8 +4977,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <f>M7</f>
-        <v>0.33580727582430953</v>
+        <v>0.25437955408347124</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>16</v>
@@ -5439,8 +5435,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f>M22</f>
-        <v>0.65393832880651859</v>
+        <v>0.46633962299599607</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>16</v>
@@ -5898,8 +5893,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f>M37</f>
-        <v>0.47002348390661691</v>
+        <v>0.3360386745964335</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>16</v>
@@ -6126,8 +6120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2B9B50-0C38-4376-B419-3F25B6BF644B}">
   <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C25"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6149,22 +6143,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>0</v>
@@ -6222,7 +6216,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
         <v>216.491610199858</v>
@@ -6263,7 +6257,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>183.189816845498</v>
@@ -6304,7 +6298,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>532.52692324626605</v>
@@ -6345,7 +6339,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7">
         <v>57.787765606893203</v>
@@ -6386,7 +6380,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>521.92940514030101</v>
@@ -6420,7 +6414,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7">
         <v>65.447371091424102</v>
@@ -6608,22 +6602,22 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>0</v>
@@ -6681,7 +6675,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7">
         <v>66.185761613250406</v>
@@ -6722,7 +6716,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7">
         <v>63.5772006237803</v>
@@ -6763,7 +6757,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
         <v>312.04752125429599</v>
@@ -6804,7 +6798,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7">
         <v>43.210064982418302</v>
@@ -6845,7 +6839,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7">
         <v>428.64087975499001</v>
@@ -6879,7 +6873,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" s="7">
         <v>121.654916918274</v>
@@ -7067,22 +7061,22 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>0</v>
@@ -7140,7 +7134,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35" s="7">
         <v>296.75953106659102</v>
@@ -7181,7 +7175,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="7">
         <v>258.74707517143901</v>
@@ -7222,7 +7216,7 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" s="7">
         <v>876.59320746075502</v>
@@ -7263,7 +7257,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="7">
         <v>103.648101375021</v>
@@ -7304,7 +7298,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" s="7">
         <v>948.12693793453002</v>
@@ -7338,7 +7332,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" s="7">
         <v>181.73892311882199</v>
@@ -10311,7 +10305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE5477A-C0AA-4D73-86C6-D9FBEC073C31}">
   <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C34" sqref="C34:C40"/>
     </sheetView>
   </sheetViews>
